--- a/APP Layout.xlsx
+++ b/APP Layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHAALIDMCMILLAN\Desktop\tracy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025821ED-4678-4DDA-8439-6125401AC1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665D79BF-0B1A-42AA-B01E-08E05306EE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="1710" windowWidth="28740" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
-    <t>Staff Resources/Training</t>
-  </si>
-  <si>
-    <t>Jobs/Interviews</t>
-  </si>
-  <si>
     <t>Crisis</t>
   </si>
   <si>
@@ -39,9 +33,6 @@
   </si>
   <si>
     <t>Substance Misuse</t>
-  </si>
-  <si>
-    <t>Counseling/Community</t>
   </si>
   <si>
     <t>Food</t>
@@ -922,6 +913,15 @@
   </si>
   <si>
     <t>https://rocklandworks.org/;Rockland Works (spanish services (over phone &amp; in person)</t>
+  </si>
+  <si>
+    <t>Counseling &amp; Community</t>
+  </si>
+  <si>
+    <t>Jobs &amp; Interviews</t>
+  </si>
+  <si>
+    <t>Staff Resource &amp; Training</t>
   </si>
 </sst>
 </file>
@@ -1530,316 +1530,314 @@
   </sheetPr>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="125.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="112.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="82.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="59.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="125.703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="39.41015625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="45.41015625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="112.87890625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="82.1171875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="59.5859375" style="10" customWidth="1"/>
     <col min="8" max="8" width="51" style="10" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="12.5703125" style="10"/>
+    <col min="9" max="9" width="23.5859375" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="12.5859375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75">
+    <row r="1" spans="1:26" ht="12.7">
       <c r="A1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="43.5" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="I4" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="I5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="I6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="7" spans="1:26" ht="51">
+    <row r="7" spans="1:26" ht="50.7">
       <c r="A7" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="I7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="8" spans="1:26" ht="63.75">
+    <row r="8" spans="1:26" ht="63.35">
       <c r="A8" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="51">
+    <row r="9" spans="1:26" ht="50.7">
       <c r="A9" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="51">
+    <row r="10" spans="1:26" ht="50.7">
       <c r="A10" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="25.5">
+    <row r="11" spans="1:26" ht="25.35">
       <c r="A11" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="51">
+    <row r="12" spans="1:26" ht="50.7">
       <c r="A12" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="102">
+    <row r="13" spans="1:26" ht="101.35">
       <c r="A13" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="12.75">
+    <row r="14" spans="1:26" ht="12.7">
       <c r="A14" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1863,9 +1861,9 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="12.75">
+    <row r="15" spans="1:26" ht="12.7">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1973,7 +1971,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/APP Layout.xlsx
+++ b/APP Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHAALIDMCMILLAN\Desktop\tracy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665D79BF-0B1A-42AA-B01E-08E05306EE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A64409-5B19-4F3D-A93B-93DBFE137E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Healthcare </t>
   </si>
   <si>
     <t>Emergency Rental Assisance Program</t>
@@ -921,7 +918,10 @@
     <t>Jobs &amp; Interviews</t>
   </si>
   <si>
-    <t>Staff Resource &amp; Training</t>
+    <t>Staff Resources &amp; Training</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1530,9 @@
   </sheetPr>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1548,10 +1550,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.7">
       <c r="A1" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -1566,218 +1568,218 @@
         <v>3</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="43.5" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="I4" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="G6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="I6" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="50.7">
       <c r="A7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.35">
       <c r="A8" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="50.7">
       <c r="A9" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="50.7">
       <c r="A10" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1786,13 +1788,13 @@
     </row>
     <row r="11" spans="1:26" ht="25.35">
       <c r="A11" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1801,13 +1803,13 @@
     </row>
     <row r="12" spans="1:26" ht="50.7">
       <c r="A12" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1816,13 +1818,13 @@
     </row>
     <row r="13" spans="1:26" ht="101.35">
       <c r="A13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1831,13 +1833,13 @@
     </row>
     <row r="14" spans="1:26" ht="12.7">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1863,7 +1865,7 @@
     </row>
     <row r="15" spans="1:26" ht="12.7">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>

--- a/APP Layout.xlsx
+++ b/APP Layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHAALIDMCMILLAN\Desktop\tracy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA3B2C5-2C3E-4317-9551-D2A39789EE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C475A9-57A0-4455-AC6C-8E844137492E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12720" yWindow="0" windowWidth="12960" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -504,35 +504,6 @@
   </si>
   <si>
     <t>https://www.centerforsafetyandchange.org/domestic-violence-service/; DV Shelter &amp; services</t>
-  </si>
-  <si>
-    <t>https://www.friendsofrecoveryrockland.org/; Friends of Recovery - Rockland
-Friends of Recovery - Rockland (FOR-R) is a 501C3 charitable organization composed of residents of 
-Rockland and surrounding communities who are in long-term recovery from addiction, 
-family members in recovery and family members in recovery from loss. 
-We actively organize and mobilize the recovery community to speak effectively with one voice. 
-FOR-R advances our vision by advocating for policies and practices 
-that support a vision of recovery from addiction, ensuring that information about 
-recovery is available to those seeking recovery, educating and inspiring the public 
-about recovery and substance use disorder, and decreasing the stigma attached to 
-addiction through our personal examples and stories.
-Meeting schedule: 3rd Monday of every month at 6 p.m. on Zoom. See website for more information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mharockland.org/self-help-resources/community-resources-helplines-websites/haverstraw-reachout-to-youth-roy/haverstraw-reachout-youth-roy/;Prevention Programs
-CANDLE
-120 North Main Street - Suite 301
-New City, NY 10956
-845-634-6677
-Rockland Council on Alcoholism and Other Drug Dependence
-25 Smith Street - Suite 101
-Nanuet, New York 10954
-845-215-9788
-Village of Haverstraw Reachout
-50 West Broad Street
-Haverstraw, NY 10927
-845-429-5731
-</t>
   </si>
   <si>
     <t xml:space="preserve">https://lexingtonctr.org/;Outpatient Treatment Services
@@ -592,6 +563,35 @@
   </si>
   <si>
     <t>https://www.rocklandhunger.org/find-food/;Rockland Community Against Hunger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mharockland.org/self-help-resources/community-resources-helplines-websites/haverstraw-reachout-to-youth-roy/haverstraw-reachout-youth-roy/; Prevention Programs
+CANDLE
+120 North Main Street - Suite 301
+New City, NY 10956
+845-634-6677
+Rockland Council on Alcoholism and Other Drug Dependence
+25 Smith Street - Suite 101
+Nanuet, New York 10954
+845-215-9788
+Village of Haverstraw Reachout
+50 West Broad Street
+Haverstraw, NY 10927
+845-429-5731
+</t>
+  </si>
+  <si>
+    <t>https://www.friendsofrecoveryrockland.org/; Friends of Recovery - Rockland
+Friends of Recovery - Rockland (FOR-R) is a 501C3 charitable organization composed of residents of 
+Rockland and surrounding communities who are in long-term recovery from addiction, 
+family members in recovery and family members in recovery from loss. 
+We actively organize and mobilize the recovery community to speak effectively with one voice. 
+FOR-R advances our vision by advocating for policies and practices 
+that support a vision of recovery from addiction, ensuring that information about 
+recovery is available to those seeking recovery, educating and inspiring the public 
+about recovery and substance use disorder, and decreasing the stigma attached to 
+addiction through our personal examples and stories.
+Meeting schedule: 3rd Monday of every month at 6 p.m. on Zoom. See website for more information.</t>
   </si>
 </sst>
 </file>
@@ -792,53 +792,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1062,367 +1035,367 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="125.703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="39.41015625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="45.41015625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="112.87890625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="82.1171875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="59.5859375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="51" style="10" customWidth="1"/>
-    <col min="9" max="9" width="23.5859375" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="12.5859375" style="10"/>
+    <col min="1" max="1" width="125.703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.41015625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.41015625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="112.87890625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="82.1171875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="59.5859375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="51" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.5859375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="12.5859375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="G3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="F4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="103.35" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="50.7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:26" ht="12.7">
+      <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="F7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="63.35">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:26" ht="13.7">
+      <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="8" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="50.7">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:26" ht="12.7">
+      <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="8" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="50.7">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:26" ht="12.7">
+      <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:26" ht="25.35">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:26" ht="12.7">
+      <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="8" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:26" ht="50.7">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:26" ht="12.7">
+      <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="8" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="101.35">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:26" ht="12.7">
+      <c r="A13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="12.7">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="8" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="12.7">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E13">
@@ -1441,14 +1414,14 @@
     <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="D2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="E2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F2" r:id="rId6" display="https://www.friendsofrecoveryrockland.org/; Friends of Recovery - Rockland_x000a_Friends of Recovery - Rockland (FOR-R) is a 501C3 charitable organization composed of residents of _x000a_Rockland and surrounding communities who are in long-term recovery from addiction, _x000a_family members in recovery and family members in recovery from loss. _x000a_We actively organize and mobilize the recovery community to speak effectively with one voice. _x000a_FOR-R advances our vision by advocating for policies and practices _x000a_that support a vision of recovery from addiction, ensuring that information about _x000a_recovery is available to those seeking recovery, educating and inspiring the public _x000a_about recovery and substance use disorder, and decreasing the stigma attached to _x000a_addiction through our personal examples and stories._x000a__x000a_Meeting schedule: 3rd Monday of every month at 6 p.m. on Zoom. See website for more information." xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F2" r:id="rId6" display="https://www.friendsofrecoveryrockland.org/; Friends of Recovery - Rockland_x000a_Friends of Recovery - Rockland (FOR-R) is a 501C3 charitable organization composed of residents of _x000a_Rockland and surrounding communities who are in long-term recovery from addiction, _x000a_family members in recovery and family members in recovery from loss. _x000a_We actively organize and mobilize the recovery community to speak effectively with one voice. _x000a_FOR-R advances our vision by advocating for policies and practices _x000a_that support a vision of recovery from addiction, ensuring that information about _x000a_recovery is available to those seeking recovery, educating and inspiring the public _x000a_about recovery and substance use disorder, and decreasing the stigma attached to _x000a_addiction through our personal examples and stories._x000a_Meeting schedule: 3rd Monday of every month at 6 p.m. on Zoom. See website for more information." xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="G2" r:id="rId7" display="https://www.rocklandcountyny.gov/?splash=http%3a%2f%2fwww.rocklandhelp.org%2f&amp;____isexternal=true;BHRT - Behavioral Health Response Team*_x000a_- have a few clinicians who speak spanish_x000a_- have a secure translation line in whatever language is needed over the phone_x000a_- have a translation app through their phones for in person outreach " xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="H2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="I2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="A3" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="B3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F3" r:id="rId13" display="https://mharockland.org/self-help-resources/community-resources-helplines-websites/haverstraw-reachout-to-youth-roy/haverstraw-reachout-youth-roy/;Prevention Programs_x000a__x000a_CANDLE_x000a_120 North Main Street - Suite 301_x000a_New City, NY 10956_x000a_845-634-6677_x000a__x000a_Rockland Council on Alcoholism and Other Drug Dependence_x000a_25 Smith Street - Suite 101_x000a_Nanuet, New York 10954_x000a_845-215-9788_x000a__x000a_Village of Haverstraw Reachout_x000a_50 West Broad Street_x000a_Haverstraw, NY 10927_x000a_845-429-5731_x000a_" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F3" r:id="rId13" display="https://mharockland.org/self-help-resources/community-resources-helplines-websites/haverstraw-reachout-to-youth-roy/haverstraw-reachout-youth-roy/; Prevention Programs_x000a_CANDLE_x000a_120 North Main Street - Suite 301_x000a_New City, NY 10956_x000a_845-634-6677_x000a__x000a_Rockland Council on Alcoholism and Other Drug Dependence_x000a_25 Smith Street - Suite 101_x000a_Nanuet, New York 10954_x000a_845-215-9788_x000a__x000a_Village of Haverstraw Reachout_x000a_50 West Broad Street_x000a_Haverstraw, NY 10927_x000a_845-429-5731_x000a_" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="G3" r:id="rId14" display="Mental Health | Rockland County, NY (rocklandcountyny.gov" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="H3" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="A4" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>

--- a/APP Layout.xlsx
+++ b/APP Layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHAALIDMCMILLAN\Desktop\tracy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C475A9-57A0-4455-AC6C-8E844137492E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9626E02F-93AC-4876-A240-CD801D56175B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="0" windowWidth="12960" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,12 +506,49 @@
     <t>https://www.centerforsafetyandchange.org/domestic-violence-service/; DV Shelter &amp; services</t>
   </si>
   <si>
-    <t xml:space="preserve">https://lexingtonctr.org/;Outpatient Treatment Services
-Lexington Center for Recovery - Airmont Clinic
-100 Route 59
-Airmont, NY 10901
-845-369-9701
-Clinic, Day Rehab &amp; Gambling Treatment
+    <t>AA meetings in the area: https://rocklandnyaa.org/meetings/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rocklandcountyny.gov/?splash=http%3a%2f%2fwww.rocklandhelp.org%2f&amp;____isexternal=true;BHRT - Behavioral Health Response Team*
+- have a few clinicians who speak spanish
+- have a secure translation line in whatever language is needed over the phone
+- have a translation app through their phones for in person outreach </t>
+  </si>
+  <si>
+    <t>Mental Health | Rockland County, NY: rocklandcountyny.gov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mhawestchester.org/;Mental Health Association of Westchester*
+-have spanish services (over phone &amp; in person)
+</t>
+  </si>
+  <si>
+    <t>https://nyackcenter.org/our-story;Nyack Center https://nyackcenter.org/our-story</t>
+  </si>
+  <si>
+    <t>https://www.peopletopeopleinc.org/;People to People</t>
+  </si>
+  <si>
+    <t>https://mowrockland.org/services/home-delivered-meals-program/;Meal on Wheels</t>
+  </si>
+  <si>
+    <t>https://www.rocklandhunger.org/find-food/;Rockland Community Against Hunger</t>
+  </si>
+  <si>
+    <t>https://www.friendsofrecoveryrockland.org/; Friends of Recovery - Rockland
+Friends of Recovery - Rockland (FOR-R) is a 501C3 charitable organization composed of residents of 
+Rockland and surrounding communities who are in long-term recovery from addiction, 
+family members in recovery and family members in recovery from loss. 
+We actively organize and mobilize the recovery community to speak effectively with one voice. 
+FOR-R advances our vision by advocating for policies and practices 
+that support a vision of recovery from addiction, ensuring that information about 
+recovery is available to those seeking recovery, educating and inspiring the public 
+about recovery and substance use disorder, and decreasing the stigma attached to 
+addiction through our personal examples and stories.
+Meeting schedule: 3rd Monday of every month at 6 p.m. on Zoom. See website for more information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lexingtonctr.org/;Outpatient Treatment Services Lexington Center for Recovery - Airmont Clinic 100 Route 59 Airmont, NY 10901 845-369-9701 Clinic, Day Rehab &amp; Gambling Treatment  /n
 Lexington Center for Recovery - Haverstraw Clinic
 Samsondale Professional Plaza
 45 South Route 9W, Suite 209
@@ -536,36 +573,7 @@
 </t>
   </si>
   <si>
-    <t>AA meetings in the area: https://rocklandnyaa.org/meetings/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rocklandcountyny.gov/?splash=http%3a%2f%2fwww.rocklandhelp.org%2f&amp;____isexternal=true;BHRT - Behavioral Health Response Team*
-- have a few clinicians who speak spanish
-- have a secure translation line in whatever language is needed over the phone
-- have a translation app through their phones for in person outreach </t>
-  </si>
-  <si>
-    <t>Mental Health | Rockland County, NY: rocklandcountyny.gov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mhawestchester.org/;Mental Health Association of Westchester*
--have spanish services (over phone &amp; in person)
-</t>
-  </si>
-  <si>
-    <t>https://nyackcenter.org/our-story;Nyack Center https://nyackcenter.org/our-story</t>
-  </si>
-  <si>
-    <t>https://www.peopletopeopleinc.org/;People to People</t>
-  </si>
-  <si>
-    <t>https://mowrockland.org/services/home-delivered-meals-program/;Meal on Wheels</t>
-  </si>
-  <si>
-    <t>https://www.rocklandhunger.org/find-food/;Rockland Community Against Hunger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mharockland.org/self-help-resources/community-resources-helplines-websites/haverstraw-reachout-to-youth-roy/haverstraw-reachout-youth-roy/; Prevention Programs
+    <t xml:space="preserve">https://mharockland.org/self-help-resources/community-resources-helplines-websites/haverstraw-reachout-to-youth-roy/haverstraw-reachout-youth-roy/; Prevention Programs  /n
 CANDLE
 120 North Main Street - Suite 301
 New City, NY 10956
@@ -580,25 +588,12 @@
 845-429-5731
 </t>
   </si>
-  <si>
-    <t>https://www.friendsofrecoveryrockland.org/; Friends of Recovery - Rockland
-Friends of Recovery - Rockland (FOR-R) is a 501C3 charitable organization composed of residents of 
-Rockland and surrounding communities who are in long-term recovery from addiction, 
-family members in recovery and family members in recovery from loss. 
-We actively organize and mobilize the recovery community to speak effectively with one voice. 
-FOR-R advances our vision by advocating for policies and practices 
-that support a vision of recovery from addiction, ensuring that information about 
-recovery is available to those seeking recovery, educating and inspiring the public 
-about recovery and substance use disorder, and decreasing the stigma attached to 
-addiction through our personal examples and stories.
-Meeting schedule: 3rd Monday of every month at 6 p.m. on Zoom. See website for more information.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -651,11 +646,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF333F48"/>
-      <name val="Montserrat"/>
     </font>
     <font>
       <b/>
@@ -790,28 +780,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1034,22 +1030,21 @@
   </sheetPr>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="125.703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.41015625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.41015625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="112.87890625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="82.1171875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="59.5859375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="51" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23.5859375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="12.5859375" style="3"/>
+    <col min="1" max="1" width="125.703125" customWidth="1"/>
+    <col min="2" max="2" width="39.41015625" customWidth="1"/>
+    <col min="3" max="3" width="45.41015625" customWidth="1"/>
+    <col min="4" max="4" width="26.703125" customWidth="1"/>
+    <col min="5" max="5" width="112.87890625" customWidth="1"/>
+    <col min="6" max="6" width="82.1171875" customWidth="1"/>
+    <col min="7" max="7" width="59.5859375" customWidth="1"/>
+    <col min="8" max="8" width="51" customWidth="1"/>
+    <col min="9" max="9" width="23.5859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.7">
@@ -1082,320 +1077,320 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="F4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="103.35" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="F7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.7">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="15" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="12.7">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="12.7">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="12.7">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="12.7">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="12.7">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="12.7">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="12.7">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E13">
@@ -1421,14 +1416,14 @@
     <hyperlink ref="A3" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="B3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F3" r:id="rId13" display="https://mharockland.org/self-help-resources/community-resources-helplines-websites/haverstraw-reachout-to-youth-roy/haverstraw-reachout-youth-roy/; Prevention Programs_x000a_CANDLE_x000a_120 North Main Street - Suite 301_x000a_New City, NY 10956_x000a_845-634-6677_x000a__x000a_Rockland Council on Alcoholism and Other Drug Dependence_x000a_25 Smith Street - Suite 101_x000a_Nanuet, New York 10954_x000a_845-215-9788_x000a__x000a_Village of Haverstraw Reachout_x000a_50 West Broad Street_x000a_Haverstraw, NY 10927_x000a_845-429-5731_x000a_" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F3" r:id="rId13" display="https://mharockland.org/self-help-resources/community-resources-helplines-websites/haverstraw-reachout-to-youth-roy/haverstraw-reachout-youth-roy/; Prevention Programs  /n_x000a_CANDLE_x000a_120 North Main Street - Suite 301_x000a_New City, NY 10956_x000a_845-634-6677_x000a__x000a_Rockland Council on Alcoholism and Other Drug Dependence_x000a_25 Smith Street - Suite 101_x000a_Nanuet, New York 10954_x000a_845-215-9788_x000a__x000a_Village of Haverstraw Reachout_x000a_50 West Broad Street_x000a_Haverstraw, NY 10927_x000a_845-429-5731_x000a_" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="G3" r:id="rId14" display="Mental Health | Rockland County, NY (rocklandcountyny.gov" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="H3" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="A4" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="B4" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="C4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="E4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F4" r:id="rId20" display="https://lexingtonctr.org/;Outpatient Treatment Services_x000a_Lexington Center for Recovery - Airmont Clinic_x000a_100 Route 59_x000a_Airmont, NY 10901_x000a_845-369-9701_x000a_Clinic, Day Rehab &amp; Gambling Treatment_x000a__x000a_Lexington Center for Recovery - Haverstraw Clinic_x000a_Samsondale Professional Plaza_x000a_45 South Route 9W, Suite 209_x000a_West Haverstraw, NY 10993_x000a_845-947-3810_x000a__x000a_Lexington Center for Recovery - Methadone Treatment Program_x000a_706 Executive Blvd, Suite D_x000a_Valley Cottage, New York 10989_x000a_845-362-3904_x000a__x000a_Montefiore Nyack Hospital - The Recovery Center_x000a_312 Route 59_x000a_Nyack, New York 10960_x000a_845-348-2075_x000a_Intensive Outpatient Treatment, Clinic_x000a_Locations in Nyack_x000a__x000a__x000a_Samaritan Daytop Village - Rockland Outreach Center_x000a_Intensive Outpatient Treatment, Clinic, Day Rehab, Ambulatory Detox, _x000a_Methadone Treatment Program, Adolescent Treatment_x000a_620 Route 303_x000a_Blauvelt, NY 10913_x000a_845-353-2730_x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a_" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F4" r:id="rId20" display="https://lexingtonctr.org/;Outpatient Treatment Services Lexington Center for Recovery - Airmont Clinic 100 Route 59 Airmont, NY 10901 845-369-9701 Clinic, Day Rehab &amp; Gambling Treatment  /n_x000a_Lexington Center for Recovery - Haverstraw Clinic_x000a_Samsondale Professional Plaza_x000a_45 South Route 9W, Suite 209_x000a_West Haverstraw, NY 10993_x000a_845-947-3810_x000a__x000a_Lexington Center for Recovery - Methadone Treatment Program_x000a_706 Executive Blvd, Suite D_x000a_Valley Cottage, New York 10989_x000a_845-362-3904_x000a__x000a_Montefiore Nyack Hospital - The Recovery Center_x000a_312 Route 59_x000a_Nyack, New York 10960_x000a_845-348-2075_x000a_Intensive Outpatient Treatment, Clinic_x000a_Locations in Nyack_x000a__x000a__x000a_Samaritan Daytop Village - Rockland Outreach Center_x000a_Intensive Outpatient Treatment, Clinic, Day Rehab, Ambulatory Detox, _x000a_Methadone Treatment Program, Adolescent Treatment_x000a_620 Route 303_x000a_Blauvelt, NY 10913_x000a_845-353-2730_x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a_" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="G4" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="H4" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="A5" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>

--- a/APP Layout.xlsx
+++ b/APP Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHAALIDMCMILLAN\Desktop\tracy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9626E02F-93AC-4876-A240-CD801D56175B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E1E644-A2C7-448C-ACBB-3A88949D98C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,39 +103,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF333F48"/>
-        <rFont val="Montserrat, sans-serif"/>
-      </rPr>
-      <t xml:space="preserve">Detox and Inpatient Rehab
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333F48"/>
-        <rFont val="Montserrat, sans-serif"/>
-      </rPr>
-      <t xml:space="preserve">Good Samaritan Hospital - Inpatient Chemical Dependency Services
-255 Lafayette Avenue (Route 59)
-Suffern, NY 10901
-845-368-5242
-Montefiore Nyack Hospital – The Recovery Center
-160 North Midland Avenue
-Nyack, NY 10960
-845-348-2072
-Russell E. Blaisdell Addiction Treatment Center - Blaisdell ATC
-Building 57
-140 Old Orangeburg Road
-Orangeburg, NY 10962
-845-359-8500
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">MH Association of Rockland County </t>
     </r>
     <r>
@@ -546,6 +513,19 @@
 about recovery and substance use disorder, and decreasing the stigma attached to 
 addiction through our personal examples and stories.
 Meeting schedule: 3rd Monday of every month at 6 p.m. on Zoom. See website for more information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mharockland.org/self-help-resources/community-resources-helplines-websites/haverstraw-reachout-to-youth-roy/haverstraw-reachout-youth-roy/; Prevention Programs 
+CANDLE 
+120 North Main Street - Suite 301 New City, NY 10956 
+845-634-6677 
+Rockland Council on Alcoholism and Other Drug Dependence 
+25 Smith Street - Suite 101 Nanuet, New York 10954 845-215-9788
+Village of Haverstraw Reachout
+50 West Broad Street
+Haverstraw, NY 10927
+845-429-5731
+</t>
   </si>
   <si>
     <t xml:space="preserve">https://lexingtonctr.org/;Outpatient Treatment Services Lexington Center for Recovery - Airmont Clinic 100 Route 59 Airmont, NY 10901 845-369-9701 Clinic, Day Rehab &amp; Gambling Treatment  /n
@@ -573,20 +553,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://mharockland.org/self-help-resources/community-resources-helplines-websites/haverstraw-reachout-to-youth-roy/haverstraw-reachout-youth-roy/; Prevention Programs  /n
-CANDLE
-120 North Main Street - Suite 301
-New City, NY 10956
-845-634-6677
-Rockland Council on Alcoholism and Other Drug Dependence
-25 Smith Street - Suite 101
-Nanuet, New York 10954
-845-215-9788
-Village of Haverstraw Reachout
-50 West Broad Street
-Haverstraw, NY 10927
-845-429-5731
+    <r>
+      <t xml:space="preserve">Detox and Inpatient Rehab
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333F48"/>
+        <rFont val="Montserrat, sans-serif"/>
+      </rPr>
+      <t xml:space="preserve">Good Samaritan Hospital - Inpatient Chemical Dependency Services
+255 Lafayette Avenue (Route 59)
+Suffern, NY 10901
+845-368-5242
+Montefiore Nyack Hospital – The Recovery Center
+160 North Midland Avenue
+Nyack, NY 10960
+845-348-2072
+Russell E. Blaisdell Addiction Treatment Center - Blaisdell ATC
+Building 57
+140 Old Orangeburg Road
+Orangeburg, NY 10962
+845-359-8500
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1030,8 +1021,8 @@
   </sheetPr>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15.75" customHeight="1"/>
@@ -1049,10 +1040,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.7">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1067,39 +1058,39 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="43.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>5</v>
@@ -1107,26 +1098,26 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>7</v>
@@ -1134,26 +1125,26 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>71</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>9</v>
@@ -1161,124 +1152,124 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="103.35" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.7">
       <c r="A7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.7">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="12.7">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="12.7">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1287,13 +1278,13 @@
     </row>
     <row r="11" spans="1:26" ht="12.7">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1302,13 +1293,13 @@
     </row>
     <row r="12" spans="1:26" ht="12.7">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1317,13 +1308,13 @@
     </row>
     <row r="13" spans="1:26" ht="12.7">
       <c r="A13" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1332,13 +1323,13 @@
     </row>
     <row r="14" spans="1:26" ht="12.7">
       <c r="A14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1364,7 +1355,7 @@
     </row>
     <row r="15" spans="1:26" ht="12.7">
       <c r="A15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1416,14 +1407,14 @@
     <hyperlink ref="A3" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="B3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F3" r:id="rId13" display="https://mharockland.org/self-help-resources/community-resources-helplines-websites/haverstraw-reachout-to-youth-roy/haverstraw-reachout-youth-roy/; Prevention Programs  /n_x000a_CANDLE_x000a_120 North Main Street - Suite 301_x000a_New City, NY 10956_x000a_845-634-6677_x000a__x000a_Rockland Council on Alcoholism and Other Drug Dependence_x000a_25 Smith Street - Suite 101_x000a_Nanuet, New York 10954_x000a_845-215-9788_x000a__x000a_Village of Haverstraw Reachout_x000a_50 West Broad Street_x000a_Haverstraw, NY 10927_x000a_845-429-5731_x000a_" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F3" r:id="rId13" display="https://mharockland.org/self-help-resources/community-resources-helplines-websites/haverstraw-reachout-to-youth-roy/haverstraw-reachout-youth-roy/; Prevention Programs _x000a_CANDLE _x000a_120 North Main Street - Suite 301 New City, NY 10956 _x000a_845-634-6677 _x000a_Rockland Council on Alcoholism and Other Drug Dependence _x000a_25 Smith Street - Suite 101 Nanuet, New York 10954 845-215-9788_x000a_Village of Haverstraw Reachout_x000a_50 West Broad Street_x000a_Haverstraw, NY 10927_x000a_845-429-5731_x000a_" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="G3" r:id="rId14" display="Mental Health | Rockland County, NY (rocklandcountyny.gov" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="H3" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="A4" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="B4" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="C4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="E4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F4" r:id="rId20" display="https://lexingtonctr.org/;Outpatient Treatment Services Lexington Center for Recovery - Airmont Clinic 100 Route 59 Airmont, NY 10901 845-369-9701 Clinic, Day Rehab &amp; Gambling Treatment  /n_x000a_Lexington Center for Recovery - Haverstraw Clinic_x000a_Samsondale Professional Plaza_x000a_45 South Route 9W, Suite 209_x000a_West Haverstraw, NY 10993_x000a_845-947-3810_x000a__x000a_Lexington Center for Recovery - Methadone Treatment Program_x000a_706 Executive Blvd, Suite D_x000a_Valley Cottage, New York 10989_x000a_845-362-3904_x000a__x000a_Montefiore Nyack Hospital - The Recovery Center_x000a_312 Route 59_x000a_Nyack, New York 10960_x000a_845-348-2075_x000a_Intensive Outpatient Treatment, Clinic_x000a_Locations in Nyack_x000a__x000a__x000a_Samaritan Daytop Village - Rockland Outreach Center_x000a_Intensive Outpatient Treatment, Clinic, Day Rehab, Ambulatory Detox, _x000a_Methadone Treatment Program, Adolescent Treatment_x000a_620 Route 303_x000a_Blauvelt, NY 10913_x000a_845-353-2730_x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a_" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F4" r:id="rId20" display="https://lexingtonctr.org/;Outpatient Treatment Services Lexington Center for Recovery - Airmont Clinic 100 Route 59 Airmont, NY 10901 845-369-9701 Clinic, Day Rehab &amp; Gambling Treatment  /n_x000a_Lexington Center for Recovery - Haverstraw Clinic_x000a_Samsondale Professional Plaza_x000a_45 South Route 9W, Suite 209_x000a_West Haverstraw, NY 10993_x000a_845-947-3810_x000a_Lexington Center for Recovery - Methadone Treatment Program_x000a_706 Executive Blvd, Suite D_x000a_Valley Cottage, New York 10989_x000a_845-362-3904_x000a__x000a_Montefiore Nyack Hospital - The Recovery Center_x000a_312 Route 59_x000a_Nyack, New York 10960_x000a_845-348-2075_x000a_Intensive Outpatient Treatment, Clinic_x000a_Locations in Nyack_x000a__x000a__x000a_Samaritan Daytop Village - Rockland Outreach Center_x000a_Intensive Outpatient Treatment, Clinic, Day Rehab, Ambulatory Detox, _x000a_Methadone Treatment Program, Adolescent Treatment_x000a_620 Route 303_x000a_Blauvelt, NY 10913_x000a_845-353-2730_x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a_" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="G4" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="H4" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="A5" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>

--- a/APP Layout.xlsx
+++ b/APP Layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHAALIDMCMILLAN\Desktop\tracy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdunstan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84BECA5-8B96-4022-BEFB-443E6006DABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3117A25B-9CCF-5747-83BD-EE1F066D448C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10900" yWindow="7480" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Crisis</t>
   </si>
@@ -49,9 +48,6 @@
   </si>
   <si>
     <t>Food</t>
-  </si>
-  <si>
-    <t>Clinics &amp; Immunizations | Rockland County, NY (rocklandcountyny.gov)</t>
   </si>
   <si>
     <t>Salvation Army in Rockland County 
@@ -103,28 +99,7 @@
     <t>https://my.nicheacademy.com/rcls-staff/course/41127;Niche Academy: Too Many Bags, How to address Someone Bringing in Too Much Stuff</t>
   </si>
   <si>
-    <t>https://my.nicheacademy.com/rcls-staff/course/2321;Niche Academy:
-How to Enroll in Homelessness Training</t>
-  </si>
-  <si>
-    <t>https://my.nicheacademy.com/rcls-staff/course/31822;Niche Academy: Community
-Homelessness</t>
-  </si>
-  <si>
-    <t>https://my.nicheacademy.com/rcls-staff/course/14305;Niche Academy: Homelessness 201
-a Deeper Understanding</t>
-  </si>
-  <si>
-    <t>https://my.nicheacademy.com/rcls-staff/course/35952;Niche Academy: Family Homelessness</t>
-  </si>
-  <si>
-    <t>https://my.nicheacademy.com/rcls-staff/course/13513;Niche Academy: Library Security Solutions</t>
-  </si>
-  <si>
     <t>https://www.bridgesrc.org/programs-services/integration-services-2/;Bridges (a variety of services, including re-entry services)</t>
-  </si>
-  <si>
-    <t>https://my.nicheacademy.com/rcls-staff/course/65823;Niche Academy: Substance Abuse 101</t>
   </si>
   <si>
     <t>https://rocklandworks.org/;Rockland Works (spanish services (over phone &amp; in person)</t>
@@ -180,12 +155,6 @@
   </si>
   <si>
     <t>https://www.rocklandhunger.org/find-food/;Rockland Community Against Hunger</t>
-  </si>
-  <si>
-    <t>https://my.nicheacademy.com/rcls-staff/course/63899;Niche Academy: How Co-Workers Should Provide Backup During a Conflict</t>
-  </si>
-  <si>
-    <t>https://my.nicheacademy.com/rcls-staff/course/55049;Niche Academy: Homlessness De-escalation 101 Workshop</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ccsrockland.org/;Catholic Community Churches and Services of Rockland 
@@ -306,15 +275,6 @@
     <t>Food Pantry https://regionalfoodbank.net/agencies/nyack-f-o-o-d-program-food-pantry/</t>
   </si>
   <si>
-    <t>Ryan Dowd's Homelessness Training: https://www.homelesstraining.com/</t>
-  </si>
-  <si>
-    <t>A huge list of trainings and toolkits: https://www.webjunction.org/news/webjunction/resources-for-helping-unhoused-patrons.html</t>
-  </si>
-  <si>
-    <t>Trauma Informed Care https://cdlc.org/c.php?g=1096156&amp;p=7993885</t>
-  </si>
-  <si>
     <t>2 Congers Rd.
 New City, NY 10956
 845-634-3627
@@ -466,12 +426,25 @@
   <si>
     <t>Mental Health | Rockland County, NY: https://www.rocklandcountyny.gov</t>
   </si>
+  <si>
+    <t>Clinics &amp; Immunizations | Rockland County, NY https://rocklandcountyny.gov</t>
+  </si>
+  <si>
+    <t>https://my.nicheacademy.com/rcls-staff?category=25329;Niche Academy Homlessness Academy:
+How to Enroll in Homelessness Training</t>
+  </si>
+  <si>
+    <t>Trainings and toolkits: https://www.webjunction.org/news/webjunction/resources-for-helping-unhoused-patrons.html</t>
+  </si>
+  <si>
+    <t>Trauma Informed Care: https://cdlc.org/c.php?g=1096156&amp;p=7993885</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -531,6 +504,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -570,12 +550,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -585,8 +566,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -806,30 +791,30 @@
   </sheetPr>
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="125.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="112.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="82.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="59.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="125.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="112.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="82.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="51" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.5703125" style="1"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75">
+    <row r="1" spans="1:26" ht="14">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -844,42 +829,42 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="38.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="56">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
@@ -890,31 +875,31 @@
       <c r="P2"/>
       <c r="Q2"/>
     </row>
-    <row r="3" spans="1:26" ht="153">
+    <row r="3" spans="1:26" ht="154">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
@@ -925,31 +910,31 @@
       <c r="P3"/>
       <c r="Q3"/>
     </row>
-    <row r="4" spans="1:26" ht="76.5">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
+    <row r="4" spans="1:26" ht="84">
+      <c r="A4" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -960,31 +945,31 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:26" ht="114.75">
+    <row r="5" spans="1:26" ht="126">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -995,29 +980,29 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:26" ht="178.5">
+    <row r="6" spans="1:26" ht="196">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -1037,29 +1022,29 @@
       <c r="Y6"/>
       <c r="Z6"/>
     </row>
-    <row r="7" spans="1:26" ht="114.75">
+    <row r="7" spans="1:26" ht="126">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -1079,26 +1064,24 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:26" ht="165.75">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
+    <row r="8" spans="1:26" ht="182">
+      <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8"/>
@@ -1119,24 +1102,22 @@
       <c r="Y8"/>
       <c r="Z8"/>
     </row>
-    <row r="9" spans="1:26" ht="216.75">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
+    <row r="9" spans="1:26" ht="238">
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9"/>
@@ -1157,18 +1138,16 @@
       <c r="Y9"/>
       <c r="Z9"/>
     </row>
-    <row r="10" spans="1:26" ht="120">
-      <c r="A10" s="3" t="s">
-        <v>40</v>
-      </c>
+    <row r="10" spans="1:26" ht="104">
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1191,18 +1170,16 @@
       <c r="Y10"/>
       <c r="Z10"/>
     </row>
-    <row r="11" spans="1:26" ht="12.75">
-      <c r="A11" s="3" t="s">
-        <v>41</v>
-      </c>
+    <row r="11" spans="1:26" ht="14">
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1225,15 +1202,13 @@
       <c r="Y11"/>
       <c r="Z11"/>
     </row>
-    <row r="12" spans="1:26" ht="51">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
+    <row r="12" spans="1:26" ht="56">
+      <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1257,15 +1232,13 @@
       <c r="Y12"/>
       <c r="Z12"/>
     </row>
-    <row r="13" spans="1:26" ht="25.5">
-      <c r="A13" s="3" t="s">
-        <v>56</v>
-      </c>
+    <row r="13" spans="1:26" ht="28">
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1289,15 +1262,13 @@
       <c r="Y13"/>
       <c r="Z13"/>
     </row>
-    <row r="14" spans="1:26" ht="51">
-      <c r="A14" s="3" t="s">
-        <v>57</v>
-      </c>
+    <row r="14" spans="1:26" ht="56">
+      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1321,15 +1292,13 @@
       <c r="Y14"/>
       <c r="Z14"/>
     </row>
-    <row r="15" spans="1:26" ht="25.5">
-      <c r="A15" s="3" t="s">
-        <v>58</v>
-      </c>
+    <row r="15" spans="1:26" ht="28">
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1353,13 +1322,13 @@
       <c r="Y15"/>
       <c r="Z15"/>
     </row>
-    <row r="16" spans="1:26" ht="25.5">
+    <row r="16" spans="1:26" ht="28">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1383,13 +1352,13 @@
       <c r="Y16"/>
       <c r="Z16"/>
     </row>
-    <row r="17" spans="1:26" ht="102">
+    <row r="17" spans="1:26" ht="112">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1413,13 +1382,13 @@
       <c r="Y17"/>
       <c r="Z17"/>
     </row>
-    <row r="18" spans="1:26" ht="12.75">
+    <row r="18" spans="1:26" ht="14">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1514,6 +1483,7 @@
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{9986B82F-A3CC-4342-A1C1-E44B39E9F7F1}"/>
     <hyperlink ref="G5" r:id="rId2" xr:uid="{D51CDF22-5697-4EA5-A852-F47E0EC87B85}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{A9A7C076-2E3A-1943-B4A8-210D080626A4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -1530,7 +1500,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/APP Layout.xlsx
+++ b/APP Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdunstan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E04EE815-7851-9240-85EC-57F545D88A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6577D71-1322-3D41-B0A6-2218C90FA3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,63 +166,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Prevention Programs</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">CANDLE
-120 North Main Street - Suite 301
-New City, NY 10956
-845-634-6677
-Rockland Council on Alcoholism and Other Drug Dependence
-25 Smith Street - Suite 101
-Nanuet, New York 10954
-845-215-9788
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Village of Haverstraw Reachout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-50 West Broad Street
-Haverstraw, NY 10927
-845-429-5731
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Mental Health Association of Westchester*; https://www.mhawestchester.org/
 -have spanish services (over phone &amp; in person)
 </t>
@@ -230,10 +173,6 @@
   <si>
     <t>Meal on Wheels; https://mowrockland.org/
 Meal delivery service to homebound Rockland County residents.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Lifeline Clinic                 - A free clinic for uninsured adults, staffed entirely by non-salaried volunteers; appointments by phone only (845-358-LIFE).
-</t>
   </si>
   <si>
     <r>
@@ -298,6 +237,40 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Capital District Library Council's Trauma-Informed Libraries LibGuide; https://cdlc.org/c.php?g=1096156&amp;p=7993885 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRIDGES- Advancing Workforce Equity; https://www.bridgesrc.org/independent-living-services/advancing-workforce-equity/
+</t>
+  </si>
+  <si>
+    <t>Among their many services, they also provide eviction assistance and emergency shelter assistance.</t>
+  </si>
+  <si>
+    <t>Nyack Center; https://nyackcenter.org/our-story 
+Supports children, youth, and families through educational and recreational programs.</t>
+  </si>
+  <si>
+    <t>First Reformed Chuch of Nyack: https://www.rocklandhelpinghands.com/about-us
+Provides both sit-down and take-out home-made meals twice a week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockland Pride Wellness Center; https://rocklandpridecenter.org/#wellness
+Community-based and whole-health clinic for the LGBTQ+ community.
+</t>
+  </si>
+  <si>
+    <t>PLA's Resource Guide for Public Libraries Serving Persons Experiencing Homelessness; https://www.ala.org/pla/resources/tools/homelessness</t>
+  </si>
+  <si>
+    <t>Provides employment training for disabled people, veterans, and people recently incarcerated, 
+including assistance with accessing work clothing, transportation, and work supplies.</t>
+  </si>
+  <si>
+    <t>Rockland County Department of Social Services; https://www.rocklandcountyny.gov/departments/social-services
+Among their many services, they also provide eviction assistance and emergency shelter assistance.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -305,6 +278,175 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
       </rPr>
+      <t xml:space="preserve">Detox and Inpatient Rehab
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Good Samaritan Hospital - Inpatient Chemical Dependency Services
+255 Lafayette Avenue (Route 59)
+Suffern, NY 10901
+845-368-5242
+Montefiore Nyack Hospital – The Recovery Center
+160 North Midland Avenue
+Nyack, NY 10960
+845-348-2072
+Russell E. Blaisdell Addiction Treatment Center - Blaisdell ATC
+Building 57
+140 Old Orangeburg Road
+Orangeburg, NY 10962
+845-359-8500
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Legal Aid Society; https://legalaidrockland.org/
+Provides services such as free eviction from attorneys,
+including help in housing court.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockland Helping Hands; https://spasaparish.org/food-cupboard
+ Offers programs to provide food, shelter, housing, clothing, and basic medical needs. Their mobile van provides breakfast at the Church of the Nazarene on Church Street in Spring Valley in weekdays.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planned Parenthood; https://www.plannedparenthood.org/health-center/new-york/spring-valley/10977/spring-valley-center-2226-91220 
+A non-profit organization that provides reproductive health care in the United States.
+  </t>
+  </si>
+  <si>
+    <t>ALA's Extending Our Reach: Reducing Homelessness Through Library Engagement Toolkit; 
+https://www.ala.org/aboutala/offices/extending-our-reach-reducing-homelessness-through-library-engagement</t>
+  </si>
+  <si>
+    <t>BRIDGES- Independent Living Services (ILS); https://www.bridgesrc.org/independent-living-services/
+Non-profit organization that provides a variety of housing assistance.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Community Residences
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Lexington Center for Recovery- Hudson House
+A community residence providing a safe living environment 
+conducive for recovery for men and women. 
+74 Hudson Avenue
+Haverstraw, NY 10927
+845-786-9227
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Cupboard; https://spasaparish.org/food-cupboard
+St. Paul and St. Ann’s Parish provides bags of non-perishable groceries for individuals and families.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC STI testing; https://www.afcurgentcare.com/nanuet/patient-services/std-testing/ 
+ Offering confidential, discreet and affordable STD testing services.  </t>
+  </si>
+  <si>
+    <t>Niche Academy: Homeless Academy; https://my.nicheacademy.com/rcls-staff?category=25329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockland County Office of Community Development; https://www.rocklandcountyny.gov/departments/community-development
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Pantry; https://regionalfoodbank.net/agencies/nyack-f-o-o-d-program-food-pantry/
+Lists hours of operation and addresses of regional food banks of the Hudson Valley Region.
+</t>
+  </si>
+  <si>
+    <t>(*A federal requirement that health care providers offer interpreters to individuals who do not speak English.)</t>
+  </si>
+  <si>
+    <t>Spring Valley Housing Authority (Section 8 Vouchers); https://villagespringvalley.org/section-8/
+Spring Valley, NY 10977
+845-352-7677
+Low income and public housing</t>
+  </si>
+  <si>
+    <t>Local Alcoholic Anonymous Meetings; https://rocklandnyaa.org/meetings/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyack Homeless Project;https://www.nyackhp.org/
+ Youth-oriented nonprofit organization collecting food and clothes in need for people in Rockland County. </t>
+  </si>
+  <si>
+    <t>Domestic Violence Services, including emergency shelter assistance; https://www.centerforsafetyandchange.org/domestic-violence-service/</t>
+  </si>
+  <si>
+    <t>Never Use Alone Hotline; https://neverusealone.com/</t>
+  </si>
+  <si>
+    <t>Warming Center (run by Catholic Community Charities of Rockland)
+Runs November-April from 5pm-9am
+PICK-UP SCHEDULE Department of Social Services, Pomona: 5:00 pm (Mon-Fri only)  
+Building L Bus Shelter Spring Valley: 5:30 pm, 6:10 pm and 8:15 pm (7 days/week) Spring Valley Bus and Train Station Nyack: 7:00 pm (7 days/week)  
+Broadway and Burd (front of First Reformed Church of Nyack) Village of Haverstraw: 7:30 pm (7 days/week)  
+Commuter Parking Lot across from Village Hall Please arrive at pick-up location at least 10 minutes before scheduled pick-up.  
+Drop off occurs the next morning.  Same locations. **After 9:00 pm, must be police drop off.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+A 24/7 number people can call while using drugs to help keep them safe. The number is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>877-696-1996.</t>
+    </r>
+  </si>
+  <si>
+    <t>Emergency Rental Assisance Program; https://www.oru.com/en/accounts-billing/payment-assistance/covid-19-resources/erap</t>
+  </si>
+  <si>
+    <t>Salvation Army in Rockland County 
+Offers many housing, homeless shelter and rent assistance
+ programs as well as homeless shelters, 
+transitional housing programs, and/or security deposit help.</t>
+  </si>
+  <si>
+    <t>Catholic Community Churches and Services of Rockland; https://www.ccsrockland.org/
+Provides emergency loans and relief or mortage help to stop
+evictions.
+Call 845-364-3150 for emergency housing assistance (they speak English, Spanish, and French/Haitian Creole).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>Outpatient Treatment Services</t>
     </r>
     <r>
@@ -314,15 +456,7 @@
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Lexington Center for Recovery - Airmont Clinic</t>
+Lexington Center for Recovery - Airmont Clinic</t>
     </r>
     <r>
       <rPr>
@@ -344,15 +478,7 @@
 Airmont, NY 10901
 845-369-9701
 Clinic, Day Rehab &amp; Gambling Treatment
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Lexington Center for Recovery - Haverstraw Clinic
+Lexington Center for Recovery - Haverstraw Clinic
 Samsondale Professional Plaza
 45 South Route 9W, Suite 209
 West Haverstraw, NY 10993
@@ -392,64 +518,6 @@
 845-353-2730
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Capital District Library Council's Trauma-Informed Libraries LibGuide; https://cdlc.org/c.php?g=1096156&amp;p=7993885 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRIDGES- Advancing Workforce Equity; https://www.bridgesrc.org/independent-living-services/advancing-workforce-equity/
-</t>
-  </si>
-  <si>
-    <t>Among their many services, they also provide eviction assistance and emergency shelter assistance.</t>
-  </si>
-  <si>
-    <t>Nyack Center; https://nyackcenter.org/our-story 
-Supports children, youth, and families through educational and recreational programs.</t>
-  </si>
-  <si>
-    <t>First Reformed Chuch of Nyack: https://www.rocklandhelpinghands.com/about-us
-Provides both sit-down and take-out home-made meals twice a week.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Rockland Pride Wellness Center</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> - Community-based and whole-health clinic for the LGBTQ+ community.
-</t>
-    </r>
-  </si>
-  <si>
-    <t>PLA's Resource Guide for Public Libraries Serving Persons Experiencing Homelessness; https://www.ala.org/pla/resources/tools/homelessness</t>
-  </si>
-  <si>
-    <t>Provides employment training for disabled people, veterans, and people recently incarcerated, 
-including assistance with accessing work clothing, transportation, and work supplies.</t>
-  </si>
-  <si>
-    <t>Rockland County Department of Social Services; https://www.rocklandcountyny.gov/departments/social-services
-Among their many services, they also provide eviction assistance and emergency shelter assistance.</t>
   </si>
   <si>
     <r>
@@ -459,173 +527,40 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Detox and Inpatient Rehab
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Good Samaritan Hospital - Inpatient Chemical Dependency Services
-255 Lafayette Avenue (Route 59)
-Suffern, NY 10901
-845-368-5242
-Montefiore Nyack Hospital – The Recovery Center
-160 North Midland Avenue
-Nyack, NY 10960
-845-348-2072
-Russell E. Blaisdell Addiction Treatment Center - Blaisdell ATC
-Building 57
-140 Old Orangeburg Road
-Orangeburg, NY 10962
-845-359-8500
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Legal Aid Society; https://legalaidrockland.org/
-Provides services such as free eviction from attorneys,
-including help in housing court.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rockland Helping Hands; https://spasaparish.org/food-cupboard
- Offers programs to provide food, shelter, housing, clothing, and basic medical needs. Their mobile van provides breakfast at the Church of the Nazarene on Church Street in Spring Valley in weekdays.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planned Parenthood; https://www.plannedparenthood.org/health-center/new-york/spring-valley/10977/spring-valley-center-2226-91220 
-A non-profit organization that provides reproductive health care in the United States.
-  </t>
-  </si>
-  <si>
-    <t>ALA's Extending Our Reach: Reducing Homelessness Through Library Engagement Toolkit; 
-https://www.ala.org/aboutala/offices/extending-our-reach-reducing-homelessness-through-library-engagement</t>
-  </si>
-  <si>
-    <t>BRIDGES- Independent Living Services (ILS); https://www.bridgesrc.org/independent-living-services/
-Non-profit organization that provides a variety of housing assistance.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Community Residences
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Lexington Center for Recovery- Hudson House
-A community residence providing a safe living environment 
-conducive for recovery for men and women. 
-74 Hudson Avenue
+      <t xml:space="preserve">Prevention Programs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">CANDLE
+120 North Main Street - Suite 301
+New City, NY 10956
+845-634-6677
+Rockland Council on Alcoholism and Other Drug Dependence
+25 Smith Street - Suite 101
+Nanuet, New York 10954
+845-215-9788
+Village of Haverstraw Reachout
+50 West Broad Street
 Haverstraw, NY 10927
-845-786-9227
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Food Cupboard; https://spasaparish.org/food-cupboard
-St. Paul and St. Ann’s Parish provides bags of non-perishable groceries for individuals and families.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFC STI testing; https://www.afcurgentcare.com/nanuet/patient-services/std-testing/ 
- Offering confidential, discreet and affordable STD testing services.  </t>
-  </si>
-  <si>
-    <t>Niche Academy: Homeless Academy; https://my.nicheacademy.com/rcls-staff?category=25329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rockland County Office of Community Development; https://www.rocklandcountyny.gov/departments/community-development
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food Pantry; https://regionalfoodbank.net/agencies/nyack-f-o-o-d-program-food-pantry/
-Lists hours of operation and addresses of regional food banks of the Hudson Valley Region.
-</t>
-  </si>
-  <si>
-    <t>(*A federal requirement that health care providers offer interpreters to individuals who do not speak English.)</t>
-  </si>
-  <si>
-    <t>Spring Valley Housing Authority (Section 8 Vouchers); https://villagespringvalley.org/section-8/
-Spring Valley, NY 10977
-845-352-7677
-Low income and public housing</t>
-  </si>
-  <si>
-    <t>Local Alcoholic Anonymous Meetings; https://rocklandnyaa.org/meetings/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyack Homeless Project;https://www.nyackhp.org/
- Youth-oriented nonprofit organization collecting food and clothes in need for people in Rockland County. </t>
-  </si>
-  <si>
-    <t>Domestic Violence Services, including emergency shelter assistance; https://www.centerforsafetyandchange.org/domestic-violence-service/</t>
-  </si>
-  <si>
-    <t>Never Use Alone Hotline; https://neverusealone.com/</t>
-  </si>
-  <si>
-    <t>Warming Center (run by Catholic Community Charities of Rockland)
-Runs November-April from 5pm-9am
-PICK-UP SCHEDULE Department of Social Services, Pomona: 5:00 pm (Mon-Fri only)  
-Building L Bus Shelter Spring Valley: 5:30 pm, 6:10 pm and 8:15 pm (7 days/week) Spring Valley Bus and Train Station Nyack: 7:00 pm (7 days/week)  
-Broadway and Burd (front of First Reformed Church of Nyack) Village of Haverstraw: 7:30 pm (7 days/week)  
-Commuter Parking Lot across from Village Hall Please arrive at pick-up location at least 10 minutes before scheduled pick-up.  
-Drop off occurs the next morning.  Same locations. **After 9:00 pm, must be police drop off.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-A 24/7 number people can call while using drugs to help keep them safe. The number is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>877-696-1996.</t>
-    </r>
-  </si>
-  <si>
-    <t>Emergency Rental Assisance Program; https://www.oru.com/en/accounts-billing/payment-assistance/covid-19-resources/erap</t>
-  </si>
-  <si>
-    <t>Salvation Army in Rockland County 
-Offers many housing, homeless shelter and rent assistance
- programs as well as homeless shelters, 
-transitional housing programs, and/or security deposit help.</t>
-  </si>
-  <si>
-    <t>Catholic Community Churches and Services of Rockland; https://www.ccsrockland.org/
-Provides emergency loans and relief or mortage help to stop
-evictions.
-Call 845-364-3150 for emergency housing assistance (they speak English, Spanish, and French/Haitian Creole).</t>
+845-429-5731
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Lifeline Clinic:  A free clinic for uninsured adults, staffed entirely by non-salaried volunteers; appointments by phone only (845-358-LIFE).
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -664,12 +599,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -719,7 +648,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -742,33 +671,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,53 +684,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,19 +954,21 @@
   </sheetPr>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" customWidth="1"/>
-    <col min="3" max="3" width="89.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-    <col min="5" max="5" width="39.83203125" customWidth="1"/>
+    <col min="1" max="1" width="157.6640625" customWidth="1"/>
+    <col min="2" max="2" width="139" customWidth="1"/>
+    <col min="3" max="3" width="178" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="5" max="5" width="113.1640625" customWidth="1"/>
     <col min="6" max="6" width="82.1640625" customWidth="1"/>
     <col min="7" max="7" width="59.6640625" customWidth="1"/>
-    <col min="8" max="8" width="51" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="67.1640625" customWidth="1"/>
+    <col min="9" max="9" width="98.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13">
@@ -1090,7 +1000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="154">
+    <row r="2" spans="1:26" ht="84">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1100,13 +1010,13 @@
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1119,29 +1029,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:26" ht="56">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="24" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="98">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:26" ht="238">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1150,282 +1060,289 @@
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="237.75" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="237.75" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="C5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8" t="s">
+      <c r="G5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="H5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:26" ht="409.6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="56">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6" t="s">
+      <c r="F6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:26" ht="42">
+      <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:26" ht="70">
-      <c r="A7" s="3" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="8" t="s">
+      <c r="I7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="266">
+      <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="154">
-      <c r="A8" s="4" t="s">
+      <c r="F8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="G8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="I8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:26" ht="112">
+      <c r="A9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="F9" s="21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="70">
-      <c r="A9" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="3" t="s">
+      <c r="I9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="13" t="s">
+    </row>
+    <row r="10" spans="1:26" ht="70">
+      <c r="A10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="70">
-      <c r="A10" s="10" t="s">
+      <c r="I10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:26" ht="56">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="42">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" ht="14">
+      <c r="A12" s="14"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="3" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:26" ht="112">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" ht="56">
-      <c r="A12" s="22"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="3" t="s">
+      <c r="F13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" ht="13">
+      <c r="A14" s="3"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:26" ht="13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" ht="56">
+      <c r="A15" s="3"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" ht="56">
+      <c r="A16" s="3"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:26" ht="13">
-      <c r="A14" s="4"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:26" ht="13">
-      <c r="A15" s="3"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:26" ht="112">
-      <c r="A16" s="3"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="1:26" ht="13">
-      <c r="A17" s="24"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
+      <c r="A17" s="15"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
     </row>
     <row r="18" spans="1:26" ht="13">
-      <c r="A18" s="20"/>
+      <c r="A18" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A7 B1:B14 C1:C4 D1:D15 E1:E19 C8:C15 G8 A10:A14 G10 H11">
@@ -1443,7 +1360,6 @@
     <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I7" r:id="rId5" location="wellness" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/APP Layout.xlsx
+++ b/APP Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdunstan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6577D71-1322-3D41-B0A6-2218C90FA3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AE3FF1-FF9C-8F43-A24C-7D62EC7397F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -954,7 +954,7 @@
   </sheetPr>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>

--- a/APP Layout.xlsx
+++ b/APP Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdunstan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AE3FF1-FF9C-8F43-A24C-7D62EC7397F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10368C78-5FC5-A74A-AD4B-9676FB199BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
-    <t>Staff Resources/Training</t>
-  </si>
-  <si>
-    <t>Jobs/Interviews</t>
-  </si>
-  <si>
     <t>Crisis</t>
   </si>
   <si>
@@ -41,13 +35,7 @@
     <t>Substance Misuse</t>
   </si>
   <si>
-    <t>Counseling/Community</t>
-  </si>
-  <si>
     <t>Food</t>
-  </si>
-  <si>
-    <t>Healthcare  (*A federal requirement that health care providers offer interpreters to individuals who do not speak English.)</t>
   </si>
   <si>
     <r>
@@ -554,6 +542,18 @@
   <si>
     <t xml:space="preserve">Health Lifeline Clinic:  A free clinic for uninsured adults, staffed entirely by non-salaried volunteers; appointments by phone only (845-358-LIFE).
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthcare </t>
+  </si>
+  <si>
+    <t>Counseling &amp; Community</t>
+  </si>
+  <si>
+    <t>Staff Resources &amp; Training</t>
+  </si>
+  <si>
+    <t>Jobs &amp; Interviews</t>
   </si>
 </sst>
 </file>
@@ -954,8 +954,8 @@
   </sheetPr>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -973,151 +973,151 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="84">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="56">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
       <c r="H3" s="24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="238">
       <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="237.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="409.6">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1125,90 +1125,90 @@
     </row>
     <row r="7" spans="1:26" ht="42">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="266">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="112">
       <c r="A9" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="70">
       <c r="A10" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="56">
@@ -1217,14 +1217,14 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -1234,10 +1234,10 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1249,10 +1249,10 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1264,7 +1264,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1277,7 +1277,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1290,7 +1290,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>

--- a/APP Layout.xlsx
+++ b/APP Layout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdunstan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdunstan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10368C78-5FC5-A74A-AD4B-9676FB199BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E5E5F7-ECD2-2E41-9840-8361BA9D0739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
+    <t>Staff Resources/Training</t>
+  </si>
+  <si>
+    <t>Jobs/Interviews</t>
+  </si>
+  <si>
     <t>Crisis</t>
   </si>
   <si>
@@ -35,7 +41,13 @@
     <t>Substance Misuse</t>
   </si>
   <si>
+    <t>Counseling/Community</t>
+  </si>
+  <si>
     <t>Food</t>
+  </si>
+  <si>
+    <t>Healthcare  (*A federal requirement that health care providers offer interpreters to individuals who do not speak English.)</t>
   </si>
   <si>
     <r>
@@ -542,18 +554,6 @@
   <si>
     <t xml:space="preserve">Health Lifeline Clinic:  A free clinic for uninsured adults, staffed entirely by non-salaried volunteers; appointments by phone only (845-358-LIFE).
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Healthcare </t>
-  </si>
-  <si>
-    <t>Counseling &amp; Community</t>
-  </si>
-  <si>
-    <t>Staff Resources &amp; Training</t>
-  </si>
-  <si>
-    <t>Jobs &amp; Interviews</t>
   </si>
 </sst>
 </file>
@@ -954,8 +954,8 @@
   </sheetPr>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -973,151 +973,151 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="84">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="56">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
       <c r="H3" s="24" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="238">
       <c r="A4" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="237.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="409.6">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1125,90 +1125,90 @@
     </row>
     <row r="7" spans="1:26" ht="42">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="266">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="112">
       <c r="A9" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="70">
       <c r="A10" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="56">
@@ -1217,14 +1217,14 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -1234,10 +1234,10 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1249,10 +1249,10 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1264,7 +1264,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1277,7 +1277,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1290,7 +1290,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>

--- a/APP Layout.xlsx
+++ b/APP Layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdunstan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHAALIDMCMILLAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E5E5F7-ECD2-2E41-9840-8361BA9D0739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6A6D00-137F-423A-879D-E70F92A389BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
-  <si>
-    <t>Staff Resources/Training</t>
-  </si>
-  <si>
-    <t>Jobs/Interviews</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>Crisis</t>
   </si>
@@ -41,13 +35,7 @@
     <t>Substance Misuse</t>
   </si>
   <si>
-    <t>Counseling/Community</t>
-  </si>
-  <si>
     <t>Food</t>
-  </si>
-  <si>
-    <t>Healthcare  (*A federal requirement that health care providers offer interpreters to individuals who do not speak English.)</t>
   </si>
   <si>
     <r>
@@ -554,6 +542,18 @@
   <si>
     <t xml:space="preserve">Health Lifeline Clinic:  A free clinic for uninsured adults, staffed entirely by non-salaried volunteers; appointments by phone only (845-358-LIFE).
 </t>
+  </si>
+  <si>
+    <t>Staff Resources &amp; Training</t>
+  </si>
+  <si>
+    <t>Jobs &amp; Interviews</t>
+  </si>
+  <si>
+    <t>Counseling &amp; Community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthcare  </t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -671,11 +671,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,6 +787,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,343 +1018,345 @@
   </sheetPr>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="157.6640625" customWidth="1"/>
+    <col min="1" max="1" width="157.7109375" customWidth="1"/>
     <col min="2" max="2" width="139" customWidth="1"/>
     <col min="3" max="3" width="178" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="113.1640625" customWidth="1"/>
-    <col min="6" max="6" width="82.1640625" customWidth="1"/>
-    <col min="7" max="7" width="59.6640625" customWidth="1"/>
-    <col min="8" max="8" width="67.1640625" customWidth="1"/>
-    <col min="9" max="9" width="98.83203125" customWidth="1"/>
+    <col min="5" max="5" width="113.140625" customWidth="1"/>
+    <col min="6" max="6" width="82.140625" customWidth="1"/>
+    <col min="7" max="7" width="59.7109375" customWidth="1"/>
+    <col min="8" max="8" width="67.140625" customWidth="1"/>
+    <col min="9" max="9" width="98.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13">
+    <row r="1" spans="1:26" ht="12.75">
       <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="89.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="84">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="56">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="51">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
       <c r="H3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="216.75">
+      <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:26" ht="238">
-      <c r="A4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="H4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:26" ht="237.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="409.6">
+        <v>32</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="409.5">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:26" ht="42">
+      <c r="I6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="38.25">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:26" ht="242.25">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="266">
-      <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="102">
+      <c r="A9" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="112">
-      <c r="A9" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="70">
+        <v>52</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="63.75">
       <c r="A10" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="56">
+        <v>56</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="51">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" ht="14">
+        <v>60</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="25.5">
       <c r="A12" s="14"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:26" ht="112">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" ht="102">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:26" ht="13">
+    <row r="14" spans="1:26" ht="12.75">
       <c r="A14" s="3"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:26" ht="56">
+    <row r="15" spans="1:26" ht="51">
       <c r="A15" s="3"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:26" ht="56">
+    <row r="16" spans="1:26" ht="51">
       <c r="A16" s="3"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1314,7 +1380,7 @@
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
     </row>
-    <row r="17" spans="1:26" ht="13">
+    <row r="17" spans="1:26" ht="12.75">
       <c r="A17" s="15"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1322,7 +1388,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -1341,8 +1407,9 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
     </row>
-    <row r="18" spans="1:26" ht="13">
+    <row r="18" spans="1:26" ht="12.75">
       <c r="A18" s="17"/>
+      <c r="I18" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A7 B1:B14 C1:C4 D1:D15 E1:E19 C8:C15 G8 A10:A14 G10 H11">
@@ -1376,7 +1443,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/APP Layout.xlsx
+++ b/APP Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHAALIDMCMILLAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6A6D00-137F-423A-879D-E70F92A389BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2ABF7E-09FE-415F-8497-112744B89C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
     <t>Counseling &amp; Community</t>
   </si>
   <si>
-    <t xml:space="preserve">Healthcare  </t>
+    <t xml:space="preserve">Healthcare </t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1018,8 @@
   </sheetPr>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>

--- a/APP Layout.xlsx
+++ b/APP Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHAALIDMCMILLAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2ABF7E-09FE-415F-8497-112744B89C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96D7346-0726-4B23-9CD2-50170CBFC580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
     <t>Counseling &amp; Community</t>
   </si>
   <si>
-    <t xml:space="preserve">Healthcare </t>
+    <t>Healthcare</t>
   </si>
 </sst>
 </file>
